--- a/dai/人人驾统一全量司机11月.xlsx
+++ b/dai/人人驾统一全量司机11月.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11243" uniqueCount="4425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11276" uniqueCount="4425">
   <si>
     <t>天机id</t>
   </si>
@@ -14268,8 +14268,8 @@
   <sheetPr/>
   <dimension ref="A1:L1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="M146" sqref="M146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18724,7 +18724,9 @@
       <c r="F118" t="s">
         <v>531</v>
       </c>
-      <c r="G118"/>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
       <c r="H118" t="s">
         <v>131</v>
       </c>
@@ -18760,6 +18762,9 @@
       <c r="F119" t="s">
         <v>535</v>
       </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
       <c r="H119" t="s">
         <v>28</v>
       </c>
@@ -18795,6 +18800,9 @@
       <c r="F120" t="s">
         <v>538</v>
       </c>
+      <c r="G120" t="s">
+        <v>27</v>
+      </c>
       <c r="H120" t="s">
         <v>121</v>
       </c>
@@ -18830,6 +18838,9 @@
       <c r="F121" t="s">
         <v>542</v>
       </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
       <c r="H121" t="s">
         <v>192</v>
       </c>
@@ -18865,6 +18876,9 @@
       <c r="F122" t="s">
         <v>546</v>
       </c>
+      <c r="G122" t="s">
+        <v>27</v>
+      </c>
       <c r="H122" t="s">
         <v>314</v>
       </c>
@@ -18900,6 +18914,9 @@
       <c r="F123" t="s">
         <v>550</v>
       </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
       <c r="H123" t="s">
         <v>59</v>
       </c>
@@ -18935,6 +18952,9 @@
       <c r="F124" t="s">
         <v>554</v>
       </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
       <c r="H124" t="s">
         <v>314</v>
       </c>
@@ -18970,6 +18990,9 @@
       <c r="F125" t="s">
         <v>558</v>
       </c>
+      <c r="G125" t="s">
+        <v>18</v>
+      </c>
       <c r="H125" t="s">
         <v>186</v>
       </c>
@@ -19005,6 +19028,9 @@
       <c r="F126" t="s">
         <v>562</v>
       </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
       <c r="H126" t="s">
         <v>407</v>
       </c>
@@ -19040,6 +19066,9 @@
       <c r="F127" t="s">
         <v>566</v>
       </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
       <c r="H127" t="s">
         <v>47</v>
       </c>
@@ -19075,6 +19104,9 @@
       <c r="F128" t="s">
         <v>570</v>
       </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
       <c r="H128" t="s">
         <v>70</v>
       </c>
@@ -19110,6 +19142,9 @@
       <c r="F129" t="s">
         <v>574</v>
       </c>
+      <c r="G129" t="s">
+        <v>27</v>
+      </c>
       <c r="H129" t="s">
         <v>157</v>
       </c>
@@ -19145,6 +19180,9 @@
       <c r="F130" t="s">
         <v>578</v>
       </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
       <c r="H130" t="s">
         <v>70</v>
       </c>
@@ -19180,6 +19218,9 @@
       <c r="F131" t="s">
         <v>582</v>
       </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
       <c r="H131" t="s">
         <v>70</v>
       </c>
@@ -19215,6 +19256,9 @@
       <c r="F132" t="s">
         <v>585</v>
       </c>
+      <c r="G132" t="s">
+        <v>27</v>
+      </c>
       <c r="H132" t="s">
         <v>76</v>
       </c>
@@ -19250,6 +19294,9 @@
       <c r="F133" t="s">
         <v>589</v>
       </c>
+      <c r="G133" t="s">
+        <v>27</v>
+      </c>
       <c r="H133" t="s">
         <v>59</v>
       </c>
@@ -19285,6 +19332,9 @@
       <c r="F134" t="s">
         <v>593</v>
       </c>
+      <c r="G134" t="s">
+        <v>46</v>
+      </c>
       <c r="H134" t="s">
         <v>82</v>
       </c>
@@ -19320,6 +19370,9 @@
       <c r="F135" t="s">
         <v>597</v>
       </c>
+      <c r="G135" t="s">
+        <v>27</v>
+      </c>
       <c r="H135" t="s">
         <v>131</v>
       </c>
@@ -19355,6 +19408,9 @@
       <c r="F136" t="s">
         <v>601</v>
       </c>
+      <c r="G136" t="s">
+        <v>27</v>
+      </c>
       <c r="H136" t="s">
         <v>131</v>
       </c>
@@ -19390,6 +19446,9 @@
       <c r="F137" t="s">
         <v>605</v>
       </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
       <c r="H137" t="s">
         <v>76</v>
       </c>
@@ -19425,6 +19484,9 @@
       <c r="F138" t="s">
         <v>609</v>
       </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
       <c r="H138" t="s">
         <v>53</v>
       </c>
@@ -19460,6 +19522,9 @@
       <c r="F139" t="s">
         <v>613</v>
       </c>
+      <c r="G139" t="s">
+        <v>27</v>
+      </c>
       <c r="H139" t="s">
         <v>314</v>
       </c>
@@ -19495,6 +19560,9 @@
       <c r="F140" t="s">
         <v>617</v>
       </c>
+      <c r="G140" t="s">
+        <v>27</v>
+      </c>
       <c r="H140" t="s">
         <v>59</v>
       </c>
@@ -19530,6 +19598,9 @@
       <c r="F141" t="s">
         <v>621</v>
       </c>
+      <c r="G141" t="s">
+        <v>27</v>
+      </c>
       <c r="H141" t="s">
         <v>157</v>
       </c>
@@ -19565,6 +19636,9 @@
       <c r="F142" t="s">
         <v>625</v>
       </c>
+      <c r="G142" t="s">
+        <v>27</v>
+      </c>
       <c r="H142" t="s">
         <v>47</v>
       </c>
@@ -19600,6 +19674,9 @@
       <c r="F143" t="s">
         <v>629</v>
       </c>
+      <c r="G143" t="s">
+        <v>27</v>
+      </c>
       <c r="H143" t="s">
         <v>59</v>
       </c>
@@ -19635,6 +19712,9 @@
       <c r="F144" t="s">
         <v>633</v>
       </c>
+      <c r="G144" t="s">
+        <v>27</v>
+      </c>
       <c r="H144" t="s">
         <v>347</v>
       </c>
@@ -19670,6 +19750,9 @@
       <c r="F145" t="s">
         <v>637</v>
       </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
       <c r="H145" t="s">
         <v>28</v>
       </c>
@@ -19705,6 +19788,9 @@
       <c r="F146" t="s">
         <v>641</v>
       </c>
+      <c r="G146" t="s">
+        <v>27</v>
+      </c>
       <c r="H146" t="s">
         <v>53</v>
       </c>
@@ -19740,6 +19826,9 @@
       <c r="F147" t="s">
         <v>645</v>
       </c>
+      <c r="G147" t="s">
+        <v>27</v>
+      </c>
       <c r="H147" t="s">
         <v>131</v>
       </c>
@@ -19775,6 +19864,9 @@
       <c r="F148" t="s">
         <v>649</v>
       </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
       <c r="H148" t="s">
         <v>131</v>
       </c>
@@ -19810,6 +19902,9 @@
       <c r="F149" t="s">
         <v>653</v>
       </c>
+      <c r="G149" t="s">
+        <v>27</v>
+      </c>
       <c r="H149" t="s">
         <v>65</v>
       </c>
@@ -19842,6 +19937,9 @@
       <c r="F150" t="s">
         <v>657</v>
       </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
       <c r="H150" t="s">
         <v>47</v>
       </c>
@@ -19877,6 +19975,7 @@
       <c r="F151" t="s">
         <v>661</v>
       </c>
+      <c r="G151"/>
       <c r="H151" t="s">
         <v>251</v>
       </c>
